--- a/data/trans_dic/P0902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,44</t>
+          <t>5,62; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 19,67</t>
+          <t>9,57; 14,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 23,22</t>
+          <t>8,99; 13,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 30,32</t>
+          <t>11,48; 16,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 21,11</t>
+          <t>8,31; 12,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 34,35</t>
+          <t>17,99; 24,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 30,26</t>
+          <t>18,93; 25,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 26,67</t>
+          <t>17,21; 21,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,19</t>
+          <t>7,61; 10,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,66</t>
+          <t>14,37; 18,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 24,05</t>
+          <t>14,88; 19,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 25,7</t>
+          <t>15,02; 18,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>13,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,4</t>
+          <t>6,57; 10,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,91</t>
+          <t>9,91; 14,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,26</t>
+          <t>7,43; 11,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,45</t>
+          <t>4,86; 12,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,16</t>
+          <t>11,17; 15,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,9</t>
+          <t>19,73; 24,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,41</t>
+          <t>14,12; 18,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,91</t>
+          <t>17,46; 21,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,49</t>
+          <t>9,58; 12,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,05</t>
+          <t>15,42; 18,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,09</t>
+          <t>11,37; 14,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 18,42</t>
+          <t>9,26; 15,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>14,06%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,15</t>
+          <t>6,72; 11,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,15</t>
+          <t>6,73; 11,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,39</t>
+          <t>5,52; 9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,4</t>
+          <t>11,49; 16,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,79</t>
+          <t>14,11; 19,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 24,97</t>
+          <t>14,86; 20,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 18,94</t>
+          <t>13,7; 19,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 21,45</t>
+          <t>7,65; 18,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,39</t>
+          <t>11,13; 14,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 18,85</t>
+          <t>11,45; 14,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 14,38</t>
+          <t>10,19; 13,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 16,85</t>
+          <t>9,09; 16,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,09</t>
+          <t>6,42; 9,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,28</t>
+          <t>9,18; 13,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,49</t>
+          <t>7,92; 11,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,52</t>
+          <t>10,43; 14,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,62</t>
+          <t>14,63; 19,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,14</t>
+          <t>16,62; 21,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,11</t>
+          <t>14,47; 19,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 19,83</t>
+          <t>15,93; 22,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 14,81</t>
+          <t>11,3; 14,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 14,88</t>
+          <t>13,64; 17,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,49</t>
+          <t>11,87; 15,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,76</t>
+          <t>14,45; 17,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,83</t>
+          <t>7,31; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,37</t>
+          <t>9,89; 12,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,77</t>
+          <t>8,32; 10,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,66</t>
+          <t>9,3; 13,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,44</t>
+          <t>13,43; 15,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,48</t>
+          <t>18,55; 21,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,58</t>
+          <t>16,32; 19,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,02; 23,86</t>
+          <t>15,03; 19,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 14,29</t>
+          <t>10,71; 12,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,64; 17,05</t>
+          <t>14,69; 16,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,14</t>
+          <t>12,64; 14,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 18,88</t>
+          <t>13,08; 16,3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,16%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,99%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,25%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>14,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,28%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,57%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 9,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,89; 12,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 10,32</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>11,71; 14,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13,43; 15,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,55; 21,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,32; 19,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,36; 20,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 12,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>14,69; 16,43</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>12,64; 14,46</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>15,14; 17,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P0902-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,51</t>
+          <t>5,79; 9,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,57</t>
+          <t>9,61; 14,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,91</t>
+          <t>9,19; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,72</t>
+          <t>11,59; 16,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,81</t>
+          <t>8,18; 12,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,26</t>
+          <t>17,99; 24,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,93; 25,51</t>
+          <t>19,26; 25,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 21,7</t>
+          <t>16,96; 21,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 10,43</t>
+          <t>7,63; 10,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,37; 18,51</t>
+          <t>14,55; 18,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,88; 19,07</t>
+          <t>15,1; 19,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 18,64</t>
+          <t>15,06; 18,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,15</t>
+          <t>6,55; 10,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,15</t>
+          <t>9,98; 14,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,39</t>
+          <t>7,53; 10,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,04</t>
+          <t>5,03; 12,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,79</t>
+          <t>11,49; 15,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,73; 24,97</t>
+          <t>19,42; 24,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 18,94</t>
+          <t>14,2; 19,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 21,54</t>
+          <t>17,56; 21,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,39</t>
+          <t>9,41; 12,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,42; 18,85</t>
+          <t>15,32; 18,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 14,38</t>
+          <t>11,37; 14,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,93</t>
+          <t>9,15; 16,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,09</t>
+          <t>6,66; 11,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,28</t>
+          <t>6,66; 11,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,49</t>
+          <t>5,5; 9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,95</t>
+          <t>11,53; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,62</t>
+          <t>14,27; 19,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,14</t>
+          <t>14,75; 20,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 19,11</t>
+          <t>13,63; 19,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,92</t>
+          <t>7,75; 19,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 14,81</t>
+          <t>11,06; 14,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 14,88</t>
+          <t>11,34; 14,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,49</t>
+          <t>10,23; 13,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 16,73</t>
+          <t>9,1; 16,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,83</t>
+          <t>6,38; 9,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,37</t>
+          <t>9,04; 13,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,77</t>
+          <t>7,65; 11,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,42</t>
+          <t>10,39; 14,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,44</t>
+          <t>14,89; 19,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,48</t>
+          <t>16,66; 21,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,58</t>
+          <t>14,48; 19,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,33</t>
+          <t>16,0; 22,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 14,29</t>
+          <t>11,12; 14,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 17,05</t>
+          <t>13,66; 16,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 15,14</t>
+          <t>11,94; 15,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,91</t>
+          <t>14,25; 18,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,29; 9,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,97; 12,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,28; 10,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,29</t>
+          <t>9,29; 13,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,37; 15,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,73; 21,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,5; 19,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,84</t>
+          <t>14,43; 19,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,73; 12,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,61; 16,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,75; 14,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,3</t>
+          <t>13,06; 16,21</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52910</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>84742</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>76593</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>89445</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>71823</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>146018</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>151771</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>129963</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>124733</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>230759</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>228364</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>219408</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40184; 67162</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>67588; 102663</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>61994; 96648</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73620; 107548</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56330; 87657</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>125377; 167445</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>129611; 173577</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114522; 144998</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>105518; 146654</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>203730; 262814</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>203512; 256849</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>197316; 245857</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>78444</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>120733</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>92251</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>107385</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>131014</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>228348</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>172975</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>186022</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>209458</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>349081</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>265226</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>293407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>63026; 97367</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>101460; 145200</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>76941; 111938</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59917; 143294</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>111302; 152752</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>200200; 255156</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148076; 201742</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>168065; 206129</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>181695; 237708</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>313692; 383264</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>234864; 299154</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>196705; 343850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60084</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65966</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>54909</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>98288</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>114677</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>135453</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>127244</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>132098</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>174761</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>201418</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>182153</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>230386</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45212; 76294</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50469; 85171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41766; 72119</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81236; 118244</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>97616; 135785</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>114323; 156813</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>107018; 150017</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72348; 179040</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>150738; 198983</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>173843; 229530</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>158018; 209970</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>149138; 272182</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>76000</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>105080</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90098</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>114387</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>176153</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>200345</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>175567</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>215445</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>252153</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305425</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>265665</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>329832</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60121; 93184</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>85671; 128485</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71687; 108958</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>96092; 133008</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>154670; 203552</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>175056; 227697</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>151163; 204464</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>175171; 242236</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>220348; 280389</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>273032; 336543</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>236543; 299042</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>287772; 363778</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>267438</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>376521</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>313851</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>409505</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>493667</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>710163</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>627556</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>663528</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>761106</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1086684</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>941407</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1073033</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>238988; 302230</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>341647; 417602</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>281101; 349067</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>321017; 460924</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>451936; 535285</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>665859; 756351</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>584959; 680069</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>528351; 724086</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>713886; 816233</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1019635; 1146997</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>884783; 1002133</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>929269; 1153476</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>